--- a/target/bancoDados.xlsx
+++ b/target/bancoDados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulo.silva\eclipse-workspace\Appium_Hub_TDD\target\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F04313-DDD0-4FF0-B252-A14F935A0B3C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD828388-27FF-40DD-BA7E-10FF91536690}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{D514BC7B-BE3F-4BB9-9548-BB59BDF80586}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D514BC7B-BE3F-4BB9-9548-BB59BDF80586}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
   <si>
     <t>Usuario</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>saulos64</t>
+  </si>
+  <si>
+    <t>saulos66</t>
   </si>
 </sst>
 </file>
@@ -660,7 +663,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -752,7 +755,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF751C6D-0313-48F7-A015-FFF3B2048B34}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -766,70 +769,196 @@
     <col min="5" max="5" width="26.26953125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="6" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{6DF50534-58C5-4FE2-A508-5E147B031112}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{F536E151-C52F-4638-84DC-2B5B52377B4B}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -838,7 +967,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/target/bancoDados.xlsx
+++ b/target/bancoDados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulo.silva\eclipse-workspace\Appium_Hub_TDD\target\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD828388-27FF-40DD-BA7E-10FF91536690}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D9E27C-1905-4BE1-AB08-553084BCB778}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D514BC7B-BE3F-4BB9-9548-BB59BDF80586}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D514BC7B-BE3F-4BB9-9548-BB59BDF80586}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t>Usuario</t>
   </si>
@@ -158,9 +158,6 @@
     <t>apple</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>manodoCeu12</t>
   </si>
   <si>
@@ -188,12 +185,6 @@
     <t>osasco</t>
   </si>
   <si>
-    <t>saulos63</t>
-  </si>
-  <si>
-    <t>Use 5 characters or longer</t>
-  </si>
-  <si>
     <t>as</t>
   </si>
   <si>
@@ -206,17 +197,20 @@
     <t>BOSE SOUNDLINK WIRELESS SPEAKER</t>
   </si>
   <si>
-    <t>saulos64</t>
-  </si>
-  <si>
-    <t>saulos66</t>
+    <t>corinthians</t>
+  </si>
+  <si>
+    <t>USER NAME</t>
+  </si>
+  <si>
+    <t>saulos71</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +255,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF032F62"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -283,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -291,6 +291,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -606,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B9136E-0E6B-411A-8662-0AE91BD9A6DE}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -626,130 +627,85 @@
     <col min="13" max="13" width="25.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="6" t="s">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D10" s="2"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B14" s="6"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{7080927B-4433-4CAC-BB96-EF975263CE62}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{41B41909-6CD0-49DD-8827-617BF655AA88}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -757,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF751C6D-0313-48F7-A015-FFF3B2048B34}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -792,7 +748,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -806,16 +762,16 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -827,7 +783,7 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -841,31 +797,31 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>46</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>47</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>48</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>49</v>
-      </c>
-      <c r="I3" t="s">
-        <v>50</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -875,82 +831,87 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="4"/>
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B12" s="2"/>
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="C13" s="1"/>
     </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
+      <c r="C18" s="3"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
+      <c r="C23" s="3"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="B25" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/target/bancoDados.xlsx
+++ b/target/bancoDados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulo.silva\eclipse-workspace\Appium_Hub_TDD\target\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D9E27C-1905-4BE1-AB08-553084BCB778}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F33D23B-9C52-4C25-A112-F979182EEEF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D514BC7B-BE3F-4BB9-9548-BB59BDF80586}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{D514BC7B-BE3F-4BB9-9548-BB59BDF80586}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>Usuario</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>saulos71</t>
+  </si>
+  <si>
+    <t>pais</t>
+  </si>
+  <si>
+    <t>Brazil</t>
   </si>
 </sst>
 </file>
@@ -711,10 +717,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF751C6D-0313-48F7-A015-FFF3B2048B34}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -725,7 +731,7 @@
     <col min="5" max="5" width="26.26953125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -759,8 +765,11 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>56</v>
       </c>
@@ -794,8 +803,11 @@
       <c r="K2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -829,8 +841,11 @@
       <c r="K3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -838,7 +853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -846,7 +861,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -854,7 +869,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -862,7 +877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -870,7 +885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -878,19 +893,19 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>55</v>
       </c>
